--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -423,34 +423,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>26.5440344520105</v>
+        <v>28.0983111257431</v>
       </c>
       <c r="C2" t="n">
-        <v>25.7705517017921</v>
+        <v>24.7343830328542</v>
       </c>
       <c r="D2" t="n">
-        <v>32.919430531924</v>
+        <v>31.8806712446203</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2307692307692</v>
+        <v>30.7338634906238</v>
       </c>
       <c r="F2" t="n">
-        <v>34.7752328545655</v>
+        <v>32.0466849534008</v>
       </c>
       <c r="G2" t="n">
-        <v>44.2406963995702</v>
+        <v>44.7490913750926</v>
       </c>
       <c r="H2" t="n">
-        <v>28.734197049923</v>
+        <v>29.3424910542222</v>
       </c>
       <c r="I2" t="n">
-        <v>23.3140376726054</v>
+        <v>25.3749730927999</v>
       </c>
       <c r="J2" t="n">
-        <v>28.1226794163294</v>
+        <v>28.8705617862581</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6450046907074</v>
+        <v>45.3232561771689</v>
       </c>
     </row>
     <row r="3">
@@ -458,34 +458,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>43.4349344205629</v>
+        <v>43.4497018132177</v>
       </c>
       <c r="C3" t="n">
-        <v>41.643801701884</v>
+        <v>37.3066014028881</v>
       </c>
       <c r="D3" t="n">
-        <v>46.3397371700122</v>
+        <v>42.6118118202031</v>
       </c>
       <c r="E3" t="n">
-        <v>34.6939759036145</v>
+        <v>37.2567879409896</v>
       </c>
       <c r="F3" t="n">
-        <v>37.2036277712602</v>
+        <v>41.4842433226089</v>
       </c>
       <c r="G3" t="n">
-        <v>53.9631306292741</v>
+        <v>54.572257848152</v>
       </c>
       <c r="H3" t="n">
-        <v>43.4656591255881</v>
+        <v>44.2617708760319</v>
       </c>
       <c r="I3" t="n">
-        <v>50.2684593832825</v>
+        <v>40.3187741846308</v>
       </c>
       <c r="J3" t="n">
-        <v>41.1177423525112</v>
+        <v>41.4598451519837</v>
       </c>
       <c r="K3" t="n">
-        <v>57.7087123777162</v>
+        <v>44.0522950263322</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold(All)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold(Europe)</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS support in the U.S.
@@ -417,75 +423,93 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>28.0983111257431</v>
+        <v>34.3455077975836</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7343830328542</v>
+        <v>28.1230920639193</v>
       </c>
       <c r="D2" t="n">
-        <v>31.8806712446203</v>
+        <v>28.0327920637749</v>
       </c>
       <c r="E2" t="n">
-        <v>30.7338634906238</v>
+        <v>24.2540573483137</v>
       </c>
       <c r="F2" t="n">
-        <v>32.0466849534008</v>
+        <v>29.499120537839</v>
       </c>
       <c r="G2" t="n">
-        <v>44.7490913750926</v>
+        <v>32.294256431363</v>
       </c>
       <c r="H2" t="n">
-        <v>29.3424910542222</v>
+        <v>29.3982179553451</v>
       </c>
       <c r="I2" t="n">
-        <v>25.3749730927999</v>
+        <v>28.8591089308659</v>
       </c>
       <c r="J2" t="n">
-        <v>28.8705617862581</v>
+        <v>25.3832571311288</v>
       </c>
       <c r="K2" t="n">
-        <v>45.3232561771689</v>
+        <v>30.7964256295476</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45.291373979237</v>
+      </c>
+      <c r="M2" t="n">
+        <v>42.4040946837611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>43.4497018132177</v>
+        <v>42.5574333274623</v>
       </c>
       <c r="C3" t="n">
-        <v>37.3066014028881</v>
+        <v>42.880295347068</v>
       </c>
       <c r="D3" t="n">
-        <v>42.6118118202031</v>
+        <v>44.6898148665286</v>
       </c>
       <c r="E3" t="n">
-        <v>37.2567879409896</v>
+        <v>38.8014169530983</v>
       </c>
       <c r="F3" t="n">
-        <v>41.4842433226089</v>
+        <v>44.370617045058</v>
       </c>
       <c r="G3" t="n">
-        <v>54.572257848152</v>
+        <v>41.7048669024782</v>
       </c>
       <c r="H3" t="n">
-        <v>44.2617708760319</v>
+        <v>43.9428615425684</v>
       </c>
       <c r="I3" t="n">
-        <v>40.3187741846308</v>
+        <v>44.8409655646873</v>
       </c>
       <c r="J3" t="n">
-        <v>41.4598451519837</v>
+        <v>43.8248904709614</v>
       </c>
       <c r="K3" t="n">
-        <v>44.0522950263322</v>
+        <v>37.2281838448364</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54.9042600841208</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.1563898238002</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold(All)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold(Europe)</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -435,40 +435,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>34.3455077975836</v>
+        <v>35.1605718448467</v>
       </c>
       <c r="C2" t="n">
-        <v>28.1230920639193</v>
+        <v>27.5973109768541</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0327920637749</v>
+        <v>27.3819169552489</v>
       </c>
       <c r="E2" t="n">
-        <v>24.2540573483137</v>
+        <v>23.8029429473581</v>
       </c>
       <c r="F2" t="n">
-        <v>29.499120537839</v>
+        <v>29.5361273364106</v>
       </c>
       <c r="G2" t="n">
-        <v>32.294256431363</v>
+        <v>32.4118963098679</v>
       </c>
       <c r="H2" t="n">
-        <v>29.3982179553451</v>
+        <v>28.7162329313837</v>
       </c>
       <c r="I2" t="n">
-        <v>28.8591089308659</v>
+        <v>27.5365961977514</v>
       </c>
       <c r="J2" t="n">
-        <v>25.3832571311288</v>
+        <v>26.0997233552131</v>
       </c>
       <c r="K2" t="n">
-        <v>30.7964256295476</v>
+        <v>30.7580330175846</v>
       </c>
       <c r="L2" t="n">
-        <v>45.291373979237</v>
+        <v>45.4091539061278</v>
       </c>
       <c r="M2" t="n">
-        <v>42.4040946837611</v>
+        <v>44.6726120873387</v>
       </c>
     </row>
     <row r="3">
@@ -476,40 +476,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>42.5574333274623</v>
+        <v>42.6651421172646</v>
       </c>
       <c r="C3" t="n">
-        <v>42.880295347068</v>
+        <v>42.3104171934666</v>
       </c>
       <c r="D3" t="n">
-        <v>44.6898148665286</v>
+        <v>44.251875827686</v>
       </c>
       <c r="E3" t="n">
-        <v>38.8014169530983</v>
+        <v>38.9472648682053</v>
       </c>
       <c r="F3" t="n">
-        <v>44.370617045058</v>
+        <v>43.1625982508618</v>
       </c>
       <c r="G3" t="n">
-        <v>41.7048669024782</v>
+        <v>41.7568157671271</v>
       </c>
       <c r="H3" t="n">
-        <v>43.9428615425684</v>
+        <v>43.6240094020982</v>
       </c>
       <c r="I3" t="n">
-        <v>44.8409655646873</v>
+        <v>42.9437654681786</v>
       </c>
       <c r="J3" t="n">
-        <v>43.8248904709614</v>
+        <v>44.7726212583426</v>
       </c>
       <c r="K3" t="n">
-        <v>37.2281838448364</v>
+        <v>37.1894180359108</v>
       </c>
       <c r="L3" t="n">
-        <v>54.9042600841208</v>
+        <v>54.8868174089149</v>
       </c>
       <c r="M3" t="n">
-        <v>43.1563898238002</v>
+        <v>44.1487613204886</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -51,13 +51,16 @@
   </si>
   <si>
     <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
 </sst>
 </file>
@@ -435,40 +438,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>35.1605718448467</v>
+        <v>56.8618171438432</v>
       </c>
       <c r="C2" t="n">
-        <v>27.5973109768541</v>
+        <v>62.4001849679936</v>
       </c>
       <c r="D2" t="n">
-        <v>27.3819169552489</v>
+        <v>61.0995779367554</v>
       </c>
       <c r="E2" t="n">
-        <v>23.8029429473581</v>
+        <v>58.2360283219923</v>
       </c>
       <c r="F2" t="n">
-        <v>29.5361273364106</v>
+        <v>75.7217964426447</v>
       </c>
       <c r="G2" t="n">
-        <v>32.4118963098679</v>
+        <v>53.2876856008449</v>
       </c>
       <c r="H2" t="n">
-        <v>28.7162329313837</v>
+        <v>68.307838195468</v>
       </c>
       <c r="I2" t="n">
-        <v>27.5365961977514</v>
+        <v>57.5266630334687</v>
       </c>
       <c r="J2" t="n">
-        <v>26.0997233552131</v>
+        <v>63.8943857257609</v>
       </c>
       <c r="K2" t="n">
-        <v>30.7580330175846</v>
+        <v>55.1678716644127</v>
       </c>
       <c r="L2" t="n">
-        <v>45.4091539061278</v>
+        <v>84.3413514265041</v>
       </c>
       <c r="M2" t="n">
-        <v>44.6726120873387</v>
+        <v>47.7634812997704</v>
       </c>
     </row>
     <row r="3">
@@ -476,40 +479,81 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>42.6651421172646</v>
+        <v>42.3073250202166</v>
       </c>
       <c r="C3" t="n">
-        <v>42.3104171934666</v>
+        <v>42.32731074868</v>
       </c>
       <c r="D3" t="n">
-        <v>44.251875827686</v>
+        <v>44.470418822047</v>
       </c>
       <c r="E3" t="n">
-        <v>38.9472648682053</v>
+        <v>38.8280061323227</v>
       </c>
       <c r="F3" t="n">
-        <v>43.1625982508618</v>
+        <v>43.2099455377032</v>
       </c>
       <c r="G3" t="n">
-        <v>41.7568157671271</v>
+        <v>41.3978517628264</v>
       </c>
       <c r="H3" t="n">
-        <v>43.6240094020982</v>
+        <v>42.7931379132603</v>
       </c>
       <c r="I3" t="n">
-        <v>42.9437654681786</v>
+        <v>42.6722800498643</v>
       </c>
       <c r="J3" t="n">
-        <v>44.7726212583426</v>
+        <v>46.7580875889793</v>
       </c>
       <c r="K3" t="n">
-        <v>37.1894180359108</v>
+        <v>37.201299617047</v>
       </c>
       <c r="L3" t="n">
-        <v>54.8868174089149</v>
+        <v>54.540958857809</v>
       </c>
       <c r="M3" t="n">
-        <v>44.1487613204886</v>
+        <v>43.2695212497248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.5391411723734</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.6725837594356</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.2294748169102</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.5718938989159</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.6762973985407</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.5372156021431</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.0525401507393</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27.5853807942848</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.6949653187643</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.647815935588</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.8491347721866</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43.9999727704209</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -438,16 +438,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.8618171438432</v>
+        <v>56.3158285402254</v>
       </c>
       <c r="C2" t="n">
-        <v>62.4001849679936</v>
+        <v>62.3382003441249</v>
       </c>
       <c r="D2" t="n">
         <v>61.0995779367554</v>
       </c>
       <c r="E2" t="n">
-        <v>58.2360283219923</v>
+        <v>57.8722744652592</v>
       </c>
       <c r="F2" t="n">
         <v>75.7217964426447</v>
@@ -456,13 +456,13 @@
         <v>53.2876856008449</v>
       </c>
       <c r="H2" t="n">
-        <v>68.307838195468</v>
+        <v>68.3762298035142</v>
       </c>
       <c r="I2" t="n">
-        <v>57.5266630334687</v>
+        <v>57.5781521228813</v>
       </c>
       <c r="J2" t="n">
-        <v>63.8943857257609</v>
+        <v>63.988041967624</v>
       </c>
       <c r="K2" t="n">
         <v>55.1678716644127</v>
@@ -471,7 +471,7 @@
         <v>84.3413514265041</v>
       </c>
       <c r="M2" t="n">
-        <v>47.7634812997704</v>
+        <v>47.4192653370821</v>
       </c>
     </row>
     <row r="3">
@@ -479,16 +479,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>42.3073250202166</v>
+        <v>41.9066210507506</v>
       </c>
       <c r="C3" t="n">
-        <v>42.32731074868</v>
+        <v>42.2779098485253</v>
       </c>
       <c r="D3" t="n">
         <v>44.470418822047</v>
       </c>
       <c r="E3" t="n">
-        <v>38.8280061323227</v>
+        <v>38.7919654365498</v>
       </c>
       <c r="F3" t="n">
         <v>43.2099455377032</v>
@@ -497,13 +497,13 @@
         <v>41.3978517628264</v>
       </c>
       <c r="H3" t="n">
-        <v>42.7931379132603</v>
+        <v>42.7237401465426</v>
       </c>
       <c r="I3" t="n">
-        <v>42.6722800498643</v>
+        <v>42.5457041997942</v>
       </c>
       <c r="J3" t="n">
-        <v>46.7580875889793</v>
+        <v>47.0291536672558</v>
       </c>
       <c r="K3" t="n">
         <v>37.201299617047</v>
@@ -512,7 +512,7 @@
         <v>54.540958857809</v>
       </c>
       <c r="M3" t="n">
-        <v>43.2695212497248</v>
+        <v>42.0380642096372</v>
       </c>
     </row>
     <row r="4">
@@ -520,16 +520,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5391411723734</v>
+        <v>34.5323403400661</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6725837594356</v>
+        <v>27.5903204528277</v>
       </c>
       <c r="D4" t="n">
         <v>27.2294748169102</v>
       </c>
       <c r="E4" t="n">
-        <v>24.5718938989159</v>
+        <v>24.2325377234806</v>
       </c>
       <c r="F4" t="n">
         <v>29.6762973985407</v>
@@ -541,7 +541,7 @@
         <v>29.0525401507393</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5853807942848</v>
+        <v>27.5805700985755</v>
       </c>
       <c r="J4" t="n">
         <v>25.6949653187643</v>
@@ -553,7 +553,7 @@
         <v>45.8491347721866</v>
       </c>
       <c r="M4" t="n">
-        <v>43.9999727704209</v>
+        <v>43.0012991761723</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -53,13 +53,14 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
+    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
   </si>
 </sst>
@@ -438,40 +439,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.3158285402254</v>
+        <v>56.9461678435988</v>
       </c>
       <c r="C2" t="n">
-        <v>62.3382003441249</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="D2" t="n">
-        <v>61.0995779367554</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="E2" t="n">
-        <v>57.8722744652592</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="F2" t="n">
-        <v>75.7217964426447</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="G2" t="n">
-        <v>53.2876856008449</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="H2" t="n">
-        <v>68.3762298035142</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="I2" t="n">
-        <v>57.5781521228813</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="J2" t="n">
-        <v>63.988041967624</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="K2" t="n">
-        <v>55.1678716644127</v>
+        <v>56.8487902138407</v>
       </c>
       <c r="L2" t="n">
-        <v>84.3413514265041</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="M2" t="n">
-        <v>47.4192653370821</v>
+        <v>48.604165854654</v>
       </c>
     </row>
     <row r="3">
@@ -479,40 +480,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>41.9066210507506</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C3" t="n">
-        <v>42.2779098485253</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D3" t="n">
-        <v>44.470418822047</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E3" t="n">
-        <v>38.7919654365498</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F3" t="n">
-        <v>43.2099455377032</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G3" t="n">
-        <v>41.3978517628264</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H3" t="n">
-        <v>42.7237401465426</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I3" t="n">
-        <v>42.5457041997942</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J3" t="n">
-        <v>47.0291536672558</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>37.201299617047</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
-        <v>54.540958857809</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M3" t="n">
-        <v>42.0380642096372</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
@@ -520,40 +521,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34.5323403400661</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5903204528277</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2294748169102</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E4" t="n">
-        <v>24.2325377234806</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F4" t="n">
-        <v>29.6762973985407</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G4" t="n">
-        <v>32.5372156021431</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H4" t="n">
-        <v>29.0525401507393</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I4" t="n">
-        <v>27.5805700985755</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J4" t="n">
-        <v>25.6949653187643</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>30.647815935588</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L4" t="n">
-        <v>45.8491347721866</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M4" t="n">
-        <v>43.0012991761723</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -433,13 +436,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>56.9461678435988</v>
+        <v>55.2696634386495</v>
       </c>
       <c r="C2" t="n">
         <v>61.0914766632881</v>
@@ -469,18 +475,21 @@
         <v>56.8487902138407</v>
       </c>
       <c r="L2" t="n">
+        <v>48.2451141436668</v>
+      </c>
+      <c r="M2" t="n">
         <v>84.6671870687128</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>48.604165854654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -510,15 +519,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
+        <v>38.0129087982222</v>
+      </c>
+      <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>34.7728459875887</v>
@@ -550,10 +562,11 @@
       <c r="K4" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.2696634386495</v>
+        <v>55.2953815419129</v>
       </c>
       <c r="C2" t="n">
         <v>61.0914766632881</v>
@@ -472,16 +472,16 @@
         <v>62.3284705512702</v>
       </c>
       <c r="K2" t="n">
-        <v>56.8487902138407</v>
+        <v>56.8474042011213</v>
       </c>
       <c r="L2" t="n">
-        <v>48.2451141436668</v>
+        <v>48.4302557813727</v>
       </c>
       <c r="M2" t="n">
         <v>84.6671870687128</v>
       </c>
       <c r="N2" t="n">
-        <v>48.604165854654</v>
+        <v>48.666425997025</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -516,16 +516,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>38.0129087982222</v>
+        <v>37.5977317839485</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N3" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C4" t="n">
         <v>28.1800572752332</v>
@@ -560,14 +560,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N4" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_belief_mean.xlsx
+++ b/xlsx/country_comparison/gcs_belief_mean.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.2953815419129</v>
+        <v>55.3352948193206</v>
       </c>
       <c r="C2" t="n">
         <v>61.0914766632881</v>
@@ -475,7 +475,7 @@
         <v>56.8474042011213</v>
       </c>
       <c r="L2" t="n">
-        <v>48.4302557813727</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="M2" t="n">
         <v>84.6671870687128</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -519,7 +519,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>37.5977317839485</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
